--- a/logs_csv/pdfs/model_7_date_2018-05-14_21-44-21_epochs_100/model_7_date_2018-05-14_21-44-21__epochs_100_step_3.xlsx
+++ b/logs_csv/pdfs/model_7_date_2018-05-14_21-44-21_epochs_100/model_7_date_2018-05-14_21-44-21__epochs_100_step_3.xlsx
@@ -36,7 +36,7 @@
     <t>val_loss</t>
   </si>
   <si>
-    <t>min</t>
+    <t>min/max</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,6 +1729,14 @@
       <c r="A53" t="s">
         <v>5</v>
       </c>
+      <c r="B53">
+        <f>MAX(B1:B51)</f>
+        <v>0.90204534617086396</v>
+      </c>
+      <c r="C53">
+        <f>MIN(C1:C51)</f>
+        <v>0.29842804139639201</v>
+      </c>
       <c r="D53">
         <f>MAX(D1:D51)</f>
         <v>0.89527767076404796</v>
